--- a/crdm_project/ref/strategy_table_inputs.xlsx
+++ b/crdm_project/ref/strategy_table_inputs.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/dmdu_scalable_computing_2022/crdm_project/ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9B9BAA36-FB9E-ED49-A219-348035A977C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1798D5C-F9B8-294A-81D0-5603F15B4F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5500" yWindow="4260" windowWidth="26440" windowHeight="15440" activeTab="1"/>
+    <workbookView xWindow="11560" yWindow="3200" windowWidth="26440" windowHeight="15440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inc_res_and_eff_and_wwtp" sheetId="6" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -903,11 +903,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M505"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A505"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20111,10 +20111,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M505"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -39319,7 +39319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -58527,7 +58527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M505"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -77736,11 +77736,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M505"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E170" sqref="B170:E170"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="K205" sqref="K205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -85795,7 +85795,7 @@
         <v>10</v>
       </c>
       <c r="K212">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L212">
         <v>0.2</v>
@@ -85833,7 +85833,7 @@
         <v>10</v>
       </c>
       <c r="K213">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L213">
         <v>0.2</v>
@@ -85871,7 +85871,7 @@
         <v>10</v>
       </c>
       <c r="K214">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L214">
         <v>0.2</v>
@@ -85909,7 +85909,7 @@
         <v>10</v>
       </c>
       <c r="K215">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L215">
         <v>0.2</v>
@@ -85947,7 +85947,7 @@
         <v>10</v>
       </c>
       <c r="K216">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L216">
         <v>0.2</v>
@@ -85985,7 +85985,7 @@
         <v>10</v>
       </c>
       <c r="K217">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L217">
         <v>0.2</v>
@@ -86023,7 +86023,7 @@
         <v>10</v>
       </c>
       <c r="K218">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L218">
         <v>0.2</v>
@@ -86061,7 +86061,7 @@
         <v>10</v>
       </c>
       <c r="K219">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L219">
         <v>0.2</v>
@@ -86099,7 +86099,7 @@
         <v>10</v>
       </c>
       <c r="K220">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L220">
         <v>0.2</v>
@@ -86137,7 +86137,7 @@
         <v>10</v>
       </c>
       <c r="K221">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L221">
         <v>0.2</v>
@@ -86175,7 +86175,7 @@
         <v>10</v>
       </c>
       <c r="K222">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L222">
         <v>0.2</v>
@@ -86213,7 +86213,7 @@
         <v>10</v>
       </c>
       <c r="K223">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L223">
         <v>0.2</v>
@@ -86251,7 +86251,7 @@
         <v>10</v>
       </c>
       <c r="K224">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L224">
         <v>0.2</v>
@@ -86289,7 +86289,7 @@
         <v>10</v>
       </c>
       <c r="K225">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L225">
         <v>0.2</v>
@@ -86327,7 +86327,7 @@
         <v>10</v>
       </c>
       <c r="K226">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L226">
         <v>0.2</v>
@@ -86365,7 +86365,7 @@
         <v>10</v>
       </c>
       <c r="K227">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L227">
         <v>0.2</v>
@@ -86403,7 +86403,7 @@
         <v>10</v>
       </c>
       <c r="K228">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L228">
         <v>0.2</v>
@@ -86441,7 +86441,7 @@
         <v>10</v>
       </c>
       <c r="K229">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L229">
         <v>0.2</v>
@@ -86479,7 +86479,7 @@
         <v>10</v>
       </c>
       <c r="K230">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L230">
         <v>0.2</v>
@@ -86517,7 +86517,7 @@
         <v>10</v>
       </c>
       <c r="K231">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L231">
         <v>0.2</v>
@@ -86555,7 +86555,7 @@
         <v>10</v>
       </c>
       <c r="K232">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L232">
         <v>0.2</v>
@@ -86593,7 +86593,7 @@
         <v>10</v>
       </c>
       <c r="K233">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L233">
         <v>0.2</v>
@@ -86631,7 +86631,7 @@
         <v>10</v>
       </c>
       <c r="K234">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L234">
         <v>0.2</v>
@@ -86669,7 +86669,7 @@
         <v>10</v>
       </c>
       <c r="K235">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L235">
         <v>0.2</v>
@@ -86707,7 +86707,7 @@
         <v>10</v>
       </c>
       <c r="K236">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L236">
         <v>0.2</v>
@@ -86745,7 +86745,7 @@
         <v>10</v>
       </c>
       <c r="K237">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L237">
         <v>0.2</v>
@@ -86783,7 +86783,7 @@
         <v>10</v>
       </c>
       <c r="K238">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L238">
         <v>0.2</v>
@@ -86821,7 +86821,7 @@
         <v>10</v>
       </c>
       <c r="K239">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L239">
         <v>0.2</v>
@@ -86859,7 +86859,7 @@
         <v>10</v>
       </c>
       <c r="K240">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L240">
         <v>0.2</v>
@@ -86897,7 +86897,7 @@
         <v>10</v>
       </c>
       <c r="K241">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L241">
         <v>0.2</v>
@@ -86935,7 +86935,7 @@
         <v>10</v>
       </c>
       <c r="K242">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L242">
         <v>0.2</v>
@@ -86973,7 +86973,7 @@
         <v>10</v>
       </c>
       <c r="K243">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L243">
         <v>0.2</v>
@@ -87011,7 +87011,7 @@
         <v>10</v>
       </c>
       <c r="K244">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L244">
         <v>0.2</v>
@@ -87049,7 +87049,7 @@
         <v>10</v>
       </c>
       <c r="K245">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L245">
         <v>0.2</v>
@@ -87087,7 +87087,7 @@
         <v>10</v>
       </c>
       <c r="K246">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L246">
         <v>0.2</v>
@@ -87125,7 +87125,7 @@
         <v>10</v>
       </c>
       <c r="K247">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L247">
         <v>0.2</v>
@@ -87163,7 +87163,7 @@
         <v>10</v>
       </c>
       <c r="K248">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L248">
         <v>0.2</v>
@@ -87201,7 +87201,7 @@
         <v>10</v>
       </c>
       <c r="K249">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L249">
         <v>0.2</v>
@@ -87239,7 +87239,7 @@
         <v>10</v>
       </c>
       <c r="K250">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L250">
         <v>0.2</v>
@@ -87277,7 +87277,7 @@
         <v>10</v>
       </c>
       <c r="K251">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L251">
         <v>0.2</v>
@@ -87315,7 +87315,7 @@
         <v>10</v>
       </c>
       <c r="K252">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L252">
         <v>0.2</v>
@@ -87353,7 +87353,7 @@
         <v>10</v>
       </c>
       <c r="K253">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L253">
         <v>0.2</v>
@@ -87391,7 +87391,7 @@
         <v>10</v>
       </c>
       <c r="K254">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L254">
         <v>0.2</v>
@@ -87429,7 +87429,7 @@
         <v>10</v>
       </c>
       <c r="K255">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L255">
         <v>0.2</v>
@@ -87467,7 +87467,7 @@
         <v>10</v>
       </c>
       <c r="K256">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L256">
         <v>0.2</v>
@@ -87505,7 +87505,7 @@
         <v>10</v>
       </c>
       <c r="K257">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L257">
         <v>0.2</v>
@@ -87543,7 +87543,7 @@
         <v>10</v>
       </c>
       <c r="K258">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L258">
         <v>0.2</v>
@@ -87581,7 +87581,7 @@
         <v>10</v>
       </c>
       <c r="K259">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L259">
         <v>0.2</v>
@@ -87619,7 +87619,7 @@
         <v>10</v>
       </c>
       <c r="K260">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L260">
         <v>0.2</v>
@@ -87657,7 +87657,7 @@
         <v>10</v>
       </c>
       <c r="K261">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L261">
         <v>0.2</v>
@@ -87695,7 +87695,7 @@
         <v>10</v>
       </c>
       <c r="K262">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L262">
         <v>0.2</v>
@@ -87733,7 +87733,7 @@
         <v>10</v>
       </c>
       <c r="K263">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L263">
         <v>0.2</v>
@@ -87771,7 +87771,7 @@
         <v>10</v>
       </c>
       <c r="K264">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L264">
         <v>0.2</v>
@@ -87809,7 +87809,7 @@
         <v>10</v>
       </c>
       <c r="K265">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L265">
         <v>0.2</v>
@@ -87847,7 +87847,7 @@
         <v>10</v>
       </c>
       <c r="K266">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L266">
         <v>0.2</v>
@@ -87885,7 +87885,7 @@
         <v>10</v>
       </c>
       <c r="K267">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L267">
         <v>0.2</v>
@@ -87923,7 +87923,7 @@
         <v>10</v>
       </c>
       <c r="K268">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L268">
         <v>0.2</v>
@@ -87961,7 +87961,7 @@
         <v>10</v>
       </c>
       <c r="K269">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L269">
         <v>0.2</v>
@@ -87999,7 +87999,7 @@
         <v>10</v>
       </c>
       <c r="K270">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L270">
         <v>0.2</v>
@@ -88037,7 +88037,7 @@
         <v>10</v>
       </c>
       <c r="K271">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L271">
         <v>0.2</v>
@@ -88075,7 +88075,7 @@
         <v>10</v>
       </c>
       <c r="K272">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L272">
         <v>0.2</v>
@@ -88113,7 +88113,7 @@
         <v>10</v>
       </c>
       <c r="K273">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L273">
         <v>0.2</v>
@@ -88151,7 +88151,7 @@
         <v>10</v>
       </c>
       <c r="K274">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L274">
         <v>0.2</v>
@@ -88189,7 +88189,7 @@
         <v>10</v>
       </c>
       <c r="K275">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L275">
         <v>0.2</v>
@@ -88227,7 +88227,7 @@
         <v>10</v>
       </c>
       <c r="K276">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L276">
         <v>0.2</v>
@@ -88265,7 +88265,7 @@
         <v>10</v>
       </c>
       <c r="K277">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L277">
         <v>0.2</v>
@@ -88303,7 +88303,7 @@
         <v>10</v>
       </c>
       <c r="K278">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L278">
         <v>0.2</v>
@@ -88341,7 +88341,7 @@
         <v>10</v>
       </c>
       <c r="K279">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L279">
         <v>0.2</v>
@@ -88379,7 +88379,7 @@
         <v>10</v>
       </c>
       <c r="K280">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L280">
         <v>0.2</v>
@@ -88417,7 +88417,7 @@
         <v>10</v>
       </c>
       <c r="K281">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L281">
         <v>0.2</v>
@@ -88455,7 +88455,7 @@
         <v>10</v>
       </c>
       <c r="K282">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L282">
         <v>0.2</v>
@@ -88493,7 +88493,7 @@
         <v>10</v>
       </c>
       <c r="K283">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L283">
         <v>0.2</v>
@@ -88531,7 +88531,7 @@
         <v>10</v>
       </c>
       <c r="K284">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L284">
         <v>0.2</v>
@@ -88569,7 +88569,7 @@
         <v>10</v>
       </c>
       <c r="K285">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L285">
         <v>0.2</v>
@@ -88607,7 +88607,7 @@
         <v>10</v>
       </c>
       <c r="K286">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L286">
         <v>0.2</v>
@@ -88645,7 +88645,7 @@
         <v>10</v>
       </c>
       <c r="K287">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L287">
         <v>0.2</v>
@@ -88683,7 +88683,7 @@
         <v>10</v>
       </c>
       <c r="K288">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L288">
         <v>0.2</v>
@@ -88721,7 +88721,7 @@
         <v>10</v>
       </c>
       <c r="K289">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L289">
         <v>0.2</v>
@@ -88759,7 +88759,7 @@
         <v>10</v>
       </c>
       <c r="K290">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L290">
         <v>0.2</v>
@@ -88797,7 +88797,7 @@
         <v>10</v>
       </c>
       <c r="K291">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L291">
         <v>0.2</v>
@@ -88835,7 +88835,7 @@
         <v>10</v>
       </c>
       <c r="K292">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L292">
         <v>0.2</v>
@@ -88873,7 +88873,7 @@
         <v>10</v>
       </c>
       <c r="K293">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L293">
         <v>0.2</v>
@@ -88911,7 +88911,7 @@
         <v>10</v>
       </c>
       <c r="K294">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L294">
         <v>0.2</v>
@@ -88949,7 +88949,7 @@
         <v>10</v>
       </c>
       <c r="K295">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L295">
         <v>0.2</v>
@@ -88987,7 +88987,7 @@
         <v>10</v>
       </c>
       <c r="K296">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L296">
         <v>0.2</v>
@@ -89025,7 +89025,7 @@
         <v>10</v>
       </c>
       <c r="K297">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L297">
         <v>0.2</v>
@@ -89063,7 +89063,7 @@
         <v>10</v>
       </c>
       <c r="K298">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L298">
         <v>0.2</v>
@@ -89101,7 +89101,7 @@
         <v>10</v>
       </c>
       <c r="K299">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L299">
         <v>0.2</v>
@@ -89139,7 +89139,7 @@
         <v>10</v>
       </c>
       <c r="K300">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L300">
         <v>0.2</v>
@@ -89177,7 +89177,7 @@
         <v>10</v>
       </c>
       <c r="K301">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L301">
         <v>0.2</v>
@@ -89215,7 +89215,7 @@
         <v>10</v>
       </c>
       <c r="K302">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L302">
         <v>0.2</v>
@@ -89253,7 +89253,7 @@
         <v>10</v>
       </c>
       <c r="K303">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L303">
         <v>0.2</v>
@@ -89291,7 +89291,7 @@
         <v>10</v>
       </c>
       <c r="K304">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L304">
         <v>0.2</v>
@@ -89329,7 +89329,7 @@
         <v>10</v>
       </c>
       <c r="K305">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L305">
         <v>0.2</v>
@@ -89367,7 +89367,7 @@
         <v>10</v>
       </c>
       <c r="K306">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L306">
         <v>0.2</v>
@@ -89405,7 +89405,7 @@
         <v>10</v>
       </c>
       <c r="K307">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L307">
         <v>0.2</v>
@@ -89443,7 +89443,7 @@
         <v>10</v>
       </c>
       <c r="K308">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L308">
         <v>0.2</v>
@@ -89481,7 +89481,7 @@
         <v>10</v>
       </c>
       <c r="K309">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L309">
         <v>0.2</v>
@@ -89519,7 +89519,7 @@
         <v>10</v>
       </c>
       <c r="K310">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L310">
         <v>0.2</v>
@@ -89557,7 +89557,7 @@
         <v>10</v>
       </c>
       <c r="K311">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L311">
         <v>0.2</v>
@@ -89595,7 +89595,7 @@
         <v>10</v>
       </c>
       <c r="K312">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L312">
         <v>0.2</v>
@@ -89633,7 +89633,7 @@
         <v>10</v>
       </c>
       <c r="K313">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L313">
         <v>0.2</v>
@@ -89671,7 +89671,7 @@
         <v>10</v>
       </c>
       <c r="K314">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L314">
         <v>0.2</v>
@@ -89709,7 +89709,7 @@
         <v>10</v>
       </c>
       <c r="K315">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L315">
         <v>0.2</v>
@@ -89747,7 +89747,7 @@
         <v>10</v>
       </c>
       <c r="K316">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L316">
         <v>0.2</v>
@@ -89785,7 +89785,7 @@
         <v>10</v>
       </c>
       <c r="K317">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L317">
         <v>0.2</v>
@@ -89823,7 +89823,7 @@
         <v>10</v>
       </c>
       <c r="K318">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L318">
         <v>0.2</v>
@@ -89861,7 +89861,7 @@
         <v>10</v>
       </c>
       <c r="K319">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L319">
         <v>0.2</v>
@@ -89899,7 +89899,7 @@
         <v>10</v>
       </c>
       <c r="K320">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L320">
         <v>0.2</v>
@@ -89937,7 +89937,7 @@
         <v>10</v>
       </c>
       <c r="K321">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L321">
         <v>0.2</v>
@@ -89975,7 +89975,7 @@
         <v>10</v>
       </c>
       <c r="K322">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L322">
         <v>0.2</v>
@@ -90013,7 +90013,7 @@
         <v>10</v>
       </c>
       <c r="K323">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L323">
         <v>0.2</v>
@@ -90051,7 +90051,7 @@
         <v>10</v>
       </c>
       <c r="K324">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L324">
         <v>0.2</v>
@@ -90089,7 +90089,7 @@
         <v>10</v>
       </c>
       <c r="K325">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L325">
         <v>0.2</v>
@@ -90127,7 +90127,7 @@
         <v>10</v>
       </c>
       <c r="K326">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L326">
         <v>0.2</v>
@@ -90165,7 +90165,7 @@
         <v>10</v>
       </c>
       <c r="K327">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L327">
         <v>0.2</v>
@@ -90203,7 +90203,7 @@
         <v>10</v>
       </c>
       <c r="K328">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L328">
         <v>0.2</v>
@@ -90241,7 +90241,7 @@
         <v>10</v>
       </c>
       <c r="K329">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L329">
         <v>0.2</v>
@@ -90279,7 +90279,7 @@
         <v>10</v>
       </c>
       <c r="K330">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L330">
         <v>0.2</v>
@@ -90317,7 +90317,7 @@
         <v>10</v>
       </c>
       <c r="K331">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L331">
         <v>0.2</v>
@@ -90355,7 +90355,7 @@
         <v>10</v>
       </c>
       <c r="K332">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L332">
         <v>0.2</v>
@@ -90393,7 +90393,7 @@
         <v>10</v>
       </c>
       <c r="K333">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L333">
         <v>0.2</v>
@@ -90431,7 +90431,7 @@
         <v>10</v>
       </c>
       <c r="K334">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L334">
         <v>0.2</v>
@@ -90469,7 +90469,7 @@
         <v>10</v>
       </c>
       <c r="K335">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L335">
         <v>0.2</v>
@@ -90507,7 +90507,7 @@
         <v>10</v>
       </c>
       <c r="K336">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L336">
         <v>0.2</v>
@@ -90545,7 +90545,7 @@
         <v>10</v>
       </c>
       <c r="K337">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L337">
         <v>0.2</v>
@@ -90583,7 +90583,7 @@
         <v>10</v>
       </c>
       <c r="K338">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L338">
         <v>0.2</v>
@@ -90621,7 +90621,7 @@
         <v>10</v>
       </c>
       <c r="K339">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L339">
         <v>0.2</v>
@@ -90659,7 +90659,7 @@
         <v>10</v>
       </c>
       <c r="K340">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L340">
         <v>0.2</v>
@@ -90697,7 +90697,7 @@
         <v>10</v>
       </c>
       <c r="K341">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L341">
         <v>0.2</v>
@@ -90735,7 +90735,7 @@
         <v>10</v>
       </c>
       <c r="K342">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L342">
         <v>0.2</v>
@@ -90773,7 +90773,7 @@
         <v>10</v>
       </c>
       <c r="K343">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L343">
         <v>0.2</v>
@@ -90811,7 +90811,7 @@
         <v>10</v>
       </c>
       <c r="K344">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L344">
         <v>0.2</v>
@@ -90849,7 +90849,7 @@
         <v>10</v>
       </c>
       <c r="K345">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L345">
         <v>0.2</v>
@@ -90887,7 +90887,7 @@
         <v>10</v>
       </c>
       <c r="K346">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L346">
         <v>0.2</v>
@@ -90925,7 +90925,7 @@
         <v>10</v>
       </c>
       <c r="K347">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L347">
         <v>0.2</v>
@@ -90963,7 +90963,7 @@
         <v>10</v>
       </c>
       <c r="K348">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L348">
         <v>0.2</v>
@@ -91001,7 +91001,7 @@
         <v>10</v>
       </c>
       <c r="K349">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L349">
         <v>0.2</v>
@@ -91039,7 +91039,7 @@
         <v>10</v>
       </c>
       <c r="K350">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L350">
         <v>0.2</v>
@@ -91077,7 +91077,7 @@
         <v>10</v>
       </c>
       <c r="K351">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L351">
         <v>0.2</v>
@@ -91115,7 +91115,7 @@
         <v>10</v>
       </c>
       <c r="K352">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L352">
         <v>0.2</v>
@@ -91153,7 +91153,7 @@
         <v>10</v>
       </c>
       <c r="K353">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L353">
         <v>0.2</v>
@@ -91191,7 +91191,7 @@
         <v>10</v>
       </c>
       <c r="K354">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L354">
         <v>0.2</v>
@@ -91229,7 +91229,7 @@
         <v>10</v>
       </c>
       <c r="K355">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L355">
         <v>0.2</v>
@@ -91267,7 +91267,7 @@
         <v>10</v>
       </c>
       <c r="K356">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L356">
         <v>0.2</v>
@@ -91305,7 +91305,7 @@
         <v>10</v>
       </c>
       <c r="K357">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L357">
         <v>0.2</v>
@@ -91343,7 +91343,7 @@
         <v>10</v>
       </c>
       <c r="K358">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L358">
         <v>0.2</v>
@@ -91381,7 +91381,7 @@
         <v>10</v>
       </c>
       <c r="K359">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L359">
         <v>0.2</v>
@@ -91419,7 +91419,7 @@
         <v>10</v>
       </c>
       <c r="K360">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L360">
         <v>0.2</v>
@@ -91457,7 +91457,7 @@
         <v>10</v>
       </c>
       <c r="K361">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L361">
         <v>0.2</v>
@@ -91495,7 +91495,7 @@
         <v>10</v>
       </c>
       <c r="K362">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L362">
         <v>0.2</v>
@@ -91533,7 +91533,7 @@
         <v>10</v>
       </c>
       <c r="K363">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L363">
         <v>0.2</v>
@@ -91571,7 +91571,7 @@
         <v>10</v>
       </c>
       <c r="K364">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L364">
         <v>0.2</v>
@@ -91609,7 +91609,7 @@
         <v>10</v>
       </c>
       <c r="K365">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L365">
         <v>0.2</v>
@@ -91647,7 +91647,7 @@
         <v>10</v>
       </c>
       <c r="K366">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L366">
         <v>0.2</v>
@@ -91685,7 +91685,7 @@
         <v>10</v>
       </c>
       <c r="K367">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L367">
         <v>0.2</v>
@@ -91723,7 +91723,7 @@
         <v>10</v>
       </c>
       <c r="K368">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L368">
         <v>0.2</v>
@@ -91761,7 +91761,7 @@
         <v>10</v>
       </c>
       <c r="K369">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L369">
         <v>0.2</v>
@@ -91799,7 +91799,7 @@
         <v>10</v>
       </c>
       <c r="K370">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L370">
         <v>0.2</v>
@@ -91837,7 +91837,7 @@
         <v>10</v>
       </c>
       <c r="K371">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L371">
         <v>0.2</v>
@@ -91875,7 +91875,7 @@
         <v>10</v>
       </c>
       <c r="K372">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L372">
         <v>0.2</v>
@@ -91913,7 +91913,7 @@
         <v>10</v>
       </c>
       <c r="K373">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L373">
         <v>0.2</v>
@@ -91951,7 +91951,7 @@
         <v>10</v>
       </c>
       <c r="K374">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L374">
         <v>0.2</v>
@@ -91989,7 +91989,7 @@
         <v>10</v>
       </c>
       <c r="K375">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L375">
         <v>0.2</v>
@@ -92027,7 +92027,7 @@
         <v>10</v>
       </c>
       <c r="K376">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L376">
         <v>0.2</v>
@@ -92065,7 +92065,7 @@
         <v>10</v>
       </c>
       <c r="K377">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L377">
         <v>0.2</v>
@@ -92103,7 +92103,7 @@
         <v>10</v>
       </c>
       <c r="K378">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L378">
         <v>0.2</v>
@@ -92141,7 +92141,7 @@
         <v>10</v>
       </c>
       <c r="K379">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L379">
         <v>0.2</v>
@@ -92179,7 +92179,7 @@
         <v>10</v>
       </c>
       <c r="K380">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L380">
         <v>0.2</v>
@@ -92217,7 +92217,7 @@
         <v>10</v>
       </c>
       <c r="K381">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L381">
         <v>0.2</v>
@@ -92255,7 +92255,7 @@
         <v>10</v>
       </c>
       <c r="K382">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L382">
         <v>0.2</v>
@@ -92293,7 +92293,7 @@
         <v>10</v>
       </c>
       <c r="K383">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L383">
         <v>0.2</v>
@@ -92331,7 +92331,7 @@
         <v>10</v>
       </c>
       <c r="K384">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L384">
         <v>0.2</v>
@@ -92369,7 +92369,7 @@
         <v>10</v>
       </c>
       <c r="K385">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L385">
         <v>0.2</v>
@@ -92407,7 +92407,7 @@
         <v>10</v>
       </c>
       <c r="K386">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L386">
         <v>0.2</v>
@@ -92445,7 +92445,7 @@
         <v>10</v>
       </c>
       <c r="K387">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L387">
         <v>0.2</v>
@@ -92483,7 +92483,7 @@
         <v>10</v>
       </c>
       <c r="K388">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L388">
         <v>0.2</v>
@@ -92521,7 +92521,7 @@
         <v>10</v>
       </c>
       <c r="K389">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L389">
         <v>0.2</v>
@@ -92559,7 +92559,7 @@
         <v>10</v>
       </c>
       <c r="K390">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L390">
         <v>0.2</v>
@@ -92597,7 +92597,7 @@
         <v>10</v>
       </c>
       <c r="K391">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L391">
         <v>0.2</v>
@@ -92635,7 +92635,7 @@
         <v>10</v>
       </c>
       <c r="K392">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L392">
         <v>0.2</v>
@@ -92673,7 +92673,7 @@
         <v>10</v>
       </c>
       <c r="K393">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L393">
         <v>0.2</v>
@@ -92711,7 +92711,7 @@
         <v>10</v>
       </c>
       <c r="K394">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L394">
         <v>0.2</v>
@@ -92749,7 +92749,7 @@
         <v>10</v>
       </c>
       <c r="K395">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L395">
         <v>0.2</v>
@@ -92787,7 +92787,7 @@
         <v>10</v>
       </c>
       <c r="K396">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L396">
         <v>0.2</v>
@@ -92825,7 +92825,7 @@
         <v>10</v>
       </c>
       <c r="K397">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L397">
         <v>0.2</v>
@@ -92863,7 +92863,7 @@
         <v>10</v>
       </c>
       <c r="K398">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L398">
         <v>0.2</v>
@@ -92901,7 +92901,7 @@
         <v>10</v>
       </c>
       <c r="K399">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L399">
         <v>0.2</v>
@@ -92939,7 +92939,7 @@
         <v>10</v>
       </c>
       <c r="K400">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L400">
         <v>0.2</v>
@@ -92977,7 +92977,7 @@
         <v>10</v>
       </c>
       <c r="K401">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L401">
         <v>0.2</v>
@@ -93015,7 +93015,7 @@
         <v>10</v>
       </c>
       <c r="K402">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L402">
         <v>0.2</v>
@@ -93053,7 +93053,7 @@
         <v>10</v>
       </c>
       <c r="K403">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L403">
         <v>0.2</v>
@@ -93091,7 +93091,7 @@
         <v>10</v>
       </c>
       <c r="K404">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L404">
         <v>0.2</v>
@@ -93129,7 +93129,7 @@
         <v>10</v>
       </c>
       <c r="K405">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L405">
         <v>0.2</v>
@@ -93167,7 +93167,7 @@
         <v>10</v>
       </c>
       <c r="K406">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L406">
         <v>0.2</v>
@@ -93205,7 +93205,7 @@
         <v>10</v>
       </c>
       <c r="K407">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L407">
         <v>0.2</v>
@@ -93243,7 +93243,7 @@
         <v>10</v>
       </c>
       <c r="K408">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L408">
         <v>0.2</v>
@@ -93281,7 +93281,7 @@
         <v>10</v>
       </c>
       <c r="K409">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L409">
         <v>0.2</v>
@@ -93319,7 +93319,7 @@
         <v>10</v>
       </c>
       <c r="K410">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L410">
         <v>0.2</v>
@@ -93357,7 +93357,7 @@
         <v>10</v>
       </c>
       <c r="K411">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L411">
         <v>0.2</v>
@@ -93395,7 +93395,7 @@
         <v>10</v>
       </c>
       <c r="K412">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L412">
         <v>0.2</v>
@@ -93433,7 +93433,7 @@
         <v>10</v>
       </c>
       <c r="K413">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L413">
         <v>0.2</v>
@@ -93471,7 +93471,7 @@
         <v>10</v>
       </c>
       <c r="K414">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L414">
         <v>0.2</v>
@@ -93509,7 +93509,7 @@
         <v>10</v>
       </c>
       <c r="K415">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L415">
         <v>0.2</v>
@@ -93547,7 +93547,7 @@
         <v>10</v>
       </c>
       <c r="K416">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L416">
         <v>0.2</v>
@@ -93585,7 +93585,7 @@
         <v>10</v>
       </c>
       <c r="K417">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L417">
         <v>0.2</v>
@@ -93623,7 +93623,7 @@
         <v>10</v>
       </c>
       <c r="K418">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L418">
         <v>0.2</v>
@@ -93661,7 +93661,7 @@
         <v>10</v>
       </c>
       <c r="K419">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L419">
         <v>0.2</v>
@@ -93699,7 +93699,7 @@
         <v>10</v>
       </c>
       <c r="K420">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L420">
         <v>0.2</v>
@@ -93737,7 +93737,7 @@
         <v>10</v>
       </c>
       <c r="K421">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L421">
         <v>0.2</v>
@@ -93775,7 +93775,7 @@
         <v>10</v>
       </c>
       <c r="K422">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L422">
         <v>0.2</v>
@@ -93813,7 +93813,7 @@
         <v>10</v>
       </c>
       <c r="K423">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L423">
         <v>0.2</v>
@@ -93851,7 +93851,7 @@
         <v>10</v>
       </c>
       <c r="K424">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L424">
         <v>0.2</v>
@@ -93889,7 +93889,7 @@
         <v>10</v>
       </c>
       <c r="K425">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L425">
         <v>0.2</v>
@@ -93927,7 +93927,7 @@
         <v>10</v>
       </c>
       <c r="K426">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L426">
         <v>0.2</v>
@@ -93965,7 +93965,7 @@
         <v>10</v>
       </c>
       <c r="K427">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L427">
         <v>0.2</v>
@@ -94003,7 +94003,7 @@
         <v>10</v>
       </c>
       <c r="K428">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L428">
         <v>0.2</v>
@@ -94041,7 +94041,7 @@
         <v>10</v>
       </c>
       <c r="K429">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L429">
         <v>0.2</v>
@@ -94079,7 +94079,7 @@
         <v>10</v>
       </c>
       <c r="K430">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L430">
         <v>0.2</v>
@@ -94117,7 +94117,7 @@
         <v>10</v>
       </c>
       <c r="K431">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L431">
         <v>0.2</v>
@@ -94155,7 +94155,7 @@
         <v>10</v>
       </c>
       <c r="K432">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L432">
         <v>0.2</v>
@@ -94193,7 +94193,7 @@
         <v>10</v>
       </c>
       <c r="K433">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L433">
         <v>0.2</v>
@@ -94231,7 +94231,7 @@
         <v>10</v>
       </c>
       <c r="K434">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L434">
         <v>0.2</v>
@@ -94269,7 +94269,7 @@
         <v>10</v>
       </c>
       <c r="K435">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L435">
         <v>0.2</v>
@@ -94307,7 +94307,7 @@
         <v>10</v>
       </c>
       <c r="K436">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L436">
         <v>0.2</v>
@@ -94345,7 +94345,7 @@
         <v>10</v>
       </c>
       <c r="K437">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L437">
         <v>0.2</v>
@@ -94383,7 +94383,7 @@
         <v>10</v>
       </c>
       <c r="K438">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L438">
         <v>0.2</v>
@@ -94421,7 +94421,7 @@
         <v>10</v>
       </c>
       <c r="K439">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L439">
         <v>0.2</v>
@@ -94459,7 +94459,7 @@
         <v>10</v>
       </c>
       <c r="K440">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L440">
         <v>0.2</v>
@@ -94497,7 +94497,7 @@
         <v>10</v>
       </c>
       <c r="K441">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L441">
         <v>0.2</v>
@@ -94535,7 +94535,7 @@
         <v>10</v>
       </c>
       <c r="K442">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L442">
         <v>0.2</v>
@@ -94573,7 +94573,7 @@
         <v>10</v>
       </c>
       <c r="K443">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L443">
         <v>0.2</v>
@@ -94611,7 +94611,7 @@
         <v>10</v>
       </c>
       <c r="K444">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L444">
         <v>0.2</v>
@@ -94649,7 +94649,7 @@
         <v>10</v>
       </c>
       <c r="K445">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L445">
         <v>0.2</v>
@@ -94687,7 +94687,7 @@
         <v>10</v>
       </c>
       <c r="K446">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L446">
         <v>0.2</v>
@@ -94725,7 +94725,7 @@
         <v>10</v>
       </c>
       <c r="K447">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L447">
         <v>0.2</v>
@@ -94763,7 +94763,7 @@
         <v>10</v>
       </c>
       <c r="K448">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L448">
         <v>0.2</v>
@@ -94801,7 +94801,7 @@
         <v>10</v>
       </c>
       <c r="K449">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L449">
         <v>0.2</v>
@@ -94839,7 +94839,7 @@
         <v>10</v>
       </c>
       <c r="K450">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L450">
         <v>0.2</v>
@@ -94877,7 +94877,7 @@
         <v>10</v>
       </c>
       <c r="K451">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L451">
         <v>0.2</v>
@@ -94915,7 +94915,7 @@
         <v>10</v>
       </c>
       <c r="K452">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L452">
         <v>0.2</v>
@@ -94953,7 +94953,7 @@
         <v>10</v>
       </c>
       <c r="K453">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L453">
         <v>0.2</v>
@@ -94991,7 +94991,7 @@
         <v>10</v>
       </c>
       <c r="K454">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L454">
         <v>0.2</v>
@@ -95029,7 +95029,7 @@
         <v>10</v>
       </c>
       <c r="K455">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L455">
         <v>0.2</v>
@@ -95067,7 +95067,7 @@
         <v>10</v>
       </c>
       <c r="K456">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L456">
         <v>0.2</v>
@@ -95105,7 +95105,7 @@
         <v>10</v>
       </c>
       <c r="K457">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L457">
         <v>0.2</v>
@@ -95143,7 +95143,7 @@
         <v>10</v>
       </c>
       <c r="K458">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L458">
         <v>0.2</v>
@@ -95181,7 +95181,7 @@
         <v>10</v>
       </c>
       <c r="K459">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L459">
         <v>0.2</v>
@@ -95219,7 +95219,7 @@
         <v>10</v>
       </c>
       <c r="K460">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L460">
         <v>0.2</v>
@@ -95257,7 +95257,7 @@
         <v>10</v>
       </c>
       <c r="K461">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L461">
         <v>0.2</v>
@@ -95295,7 +95295,7 @@
         <v>10</v>
       </c>
       <c r="K462">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L462">
         <v>0.2</v>
@@ -95333,7 +95333,7 @@
         <v>10</v>
       </c>
       <c r="K463">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L463">
         <v>0.2</v>
@@ -95371,7 +95371,7 @@
         <v>10</v>
       </c>
       <c r="K464">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L464">
         <v>0.2</v>
@@ -95409,7 +95409,7 @@
         <v>10</v>
       </c>
       <c r="K465">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L465">
         <v>0.2</v>
@@ -95447,7 +95447,7 @@
         <v>10</v>
       </c>
       <c r="K466">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L466">
         <v>0.2</v>
@@ -95485,7 +95485,7 @@
         <v>10</v>
       </c>
       <c r="K467">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L467">
         <v>0.2</v>
@@ -95523,7 +95523,7 @@
         <v>10</v>
       </c>
       <c r="K468">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L468">
         <v>0.2</v>
@@ -95561,7 +95561,7 @@
         <v>10</v>
       </c>
       <c r="K469">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L469">
         <v>0.2</v>
@@ -95599,7 +95599,7 @@
         <v>10</v>
       </c>
       <c r="K470">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L470">
         <v>0.2</v>
@@ -95637,7 +95637,7 @@
         <v>10</v>
       </c>
       <c r="K471">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L471">
         <v>0.2</v>
@@ -95675,7 +95675,7 @@
         <v>10</v>
       </c>
       <c r="K472">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L472">
         <v>0.2</v>
@@ -95713,7 +95713,7 @@
         <v>10</v>
       </c>
       <c r="K473">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L473">
         <v>0.2</v>
@@ -95751,7 +95751,7 @@
         <v>10</v>
       </c>
       <c r="K474">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L474">
         <v>0.2</v>
@@ -95789,7 +95789,7 @@
         <v>10</v>
       </c>
       <c r="K475">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L475">
         <v>0.2</v>
@@ -95827,7 +95827,7 @@
         <v>10</v>
       </c>
       <c r="K476">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L476">
         <v>0.2</v>
@@ -95865,7 +95865,7 @@
         <v>10</v>
       </c>
       <c r="K477">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L477">
         <v>0.2</v>
@@ -95903,7 +95903,7 @@
         <v>10</v>
       </c>
       <c r="K478">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L478">
         <v>0.2</v>
@@ -95941,7 +95941,7 @@
         <v>10</v>
       </c>
       <c r="K479">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L479">
         <v>0.2</v>
@@ -95979,7 +95979,7 @@
         <v>10</v>
       </c>
       <c r="K480">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L480">
         <v>0.2</v>
@@ -96017,7 +96017,7 @@
         <v>10</v>
       </c>
       <c r="K481">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L481">
         <v>0.2</v>
@@ -96055,7 +96055,7 @@
         <v>10</v>
       </c>
       <c r="K482">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L482">
         <v>0.2</v>
@@ -96093,7 +96093,7 @@
         <v>10</v>
       </c>
       <c r="K483">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L483">
         <v>0.2</v>
@@ -96131,7 +96131,7 @@
         <v>10</v>
       </c>
       <c r="K484">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L484">
         <v>0.2</v>
@@ -96169,7 +96169,7 @@
         <v>10</v>
       </c>
       <c r="K485">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L485">
         <v>0.2</v>
@@ -96207,7 +96207,7 @@
         <v>10</v>
       </c>
       <c r="K486">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L486">
         <v>0.2</v>
@@ -96245,7 +96245,7 @@
         <v>10</v>
       </c>
       <c r="K487">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L487">
         <v>0.2</v>
@@ -96283,7 +96283,7 @@
         <v>10</v>
       </c>
       <c r="K488">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L488">
         <v>0.2</v>
@@ -96321,7 +96321,7 @@
         <v>10</v>
       </c>
       <c r="K489">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L489">
         <v>0.2</v>
@@ -96359,7 +96359,7 @@
         <v>10</v>
       </c>
       <c r="K490">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L490">
         <v>0.2</v>
@@ -96397,7 +96397,7 @@
         <v>10</v>
       </c>
       <c r="K491">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L491">
         <v>0.2</v>
@@ -96435,7 +96435,7 @@
         <v>10</v>
       </c>
       <c r="K492">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L492">
         <v>0.2</v>
@@ -96473,7 +96473,7 @@
         <v>10</v>
       </c>
       <c r="K493">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L493">
         <v>0.2</v>
@@ -96511,7 +96511,7 @@
         <v>10</v>
       </c>
       <c r="K494">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L494">
         <v>0.2</v>
@@ -96549,7 +96549,7 @@
         <v>10</v>
       </c>
       <c r="K495">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L495">
         <v>0.2</v>
@@ -96587,7 +96587,7 @@
         <v>10</v>
       </c>
       <c r="K496">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L496">
         <v>0.2</v>
@@ -96625,7 +96625,7 @@
         <v>10</v>
       </c>
       <c r="K497">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L497">
         <v>0.2</v>
@@ -96663,7 +96663,7 @@
         <v>10</v>
       </c>
       <c r="K498">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L498">
         <v>0.2</v>
@@ -96701,7 +96701,7 @@
         <v>10</v>
       </c>
       <c r="K499">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L499">
         <v>0.2</v>
@@ -96739,7 +96739,7 @@
         <v>10</v>
       </c>
       <c r="K500">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L500">
         <v>0.2</v>
@@ -96777,7 +96777,7 @@
         <v>10</v>
       </c>
       <c r="K501">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L501">
         <v>0.2</v>
@@ -96815,7 +96815,7 @@
         <v>10</v>
       </c>
       <c r="K502">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L502">
         <v>0.2</v>
@@ -96853,7 +96853,7 @@
         <v>10</v>
       </c>
       <c r="K503">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L503">
         <v>0.2</v>
@@ -96891,7 +96891,7 @@
         <v>10</v>
       </c>
       <c r="K504">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L504">
         <v>0.2</v>
@@ -96929,7 +96929,7 @@
         <v>10</v>
       </c>
       <c r="K505">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L505">
         <v>0.2</v>
@@ -96944,7 +96944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
